--- a/ProDS2/Prediction/ProDS2.xlsx
+++ b/ProDS2/Prediction/ProDS2.xlsx
@@ -460,31 +460,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,12 +496,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -520,180 +520,180 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -712,72 +712,72 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -796,96 +796,96 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -904,24 +904,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -969,247 +969,247 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -1228,127 +1228,127 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,36 +1360,36 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -1408,19 +1408,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,48 +1432,48 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -1485,26 +1485,26 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,48 +1516,48 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -1576,24 +1576,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -1605,134 +1605,134 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,72 +1744,72 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -1821,19 +1821,19 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -1845,115 +1845,115 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -1972,79 +1972,79 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,19 +2056,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,24 +2080,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -2109,43 +2109,43 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -2164,24 +2164,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -2212,36 +2212,36 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2260,31 +2260,31 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,48 +2296,48 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -2349,67 +2349,67 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -2428,36 +2428,36 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -2488,60 +2488,60 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -2560,12 +2560,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -2577,38 +2577,38 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,72 +2620,72 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -2697,55 +2697,55 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -2764,36 +2764,36 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -2812,192 +2812,192 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -3009,19 +3009,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -3033,26 +3033,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,79 +3064,79 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3148,24 +3148,24 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -3201,158 +3201,158 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3364,96 +3364,96 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -3484,84 +3484,84 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -3580,108 +3580,108 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -3693,74 +3693,74 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3777,31 +3777,31 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -3820,36 +3820,36 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -3868,12 +3868,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -3892,36 +3892,36 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -3933,86 +3933,86 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4024,168 +4024,168 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -4204,24 +4204,24 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -4240,43 +4240,43 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4288,60 +4288,60 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -4360,12 +4360,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -4384,67 +4384,67 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4456,180 +4456,180 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -4648,36 +4648,36 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -4696,67 +4696,67 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -4768,55 +4768,55 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -4833,14 +4833,14 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -4852,84 +4852,84 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -4948,19 +4948,19 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -4972,180 +4972,180 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -5164,12 +5164,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -5188,31 +5188,31 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -5224,108 +5224,108 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -5337,31 +5337,31 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -5380,84 +5380,84 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -5469,218 +5469,218 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -5692,31 +5692,31 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -5728,55 +5728,55 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -5788,19 +5788,19 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -5812,55 +5812,55 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -5872,12 +5872,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -5896,144 +5896,144 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -6052,36 +6052,36 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -6100,12 +6100,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -6117,19 +6117,19 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -6141,31 +6141,31 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -6184,24 +6184,24 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -6232,19 +6232,19 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -6261,26 +6261,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -6292,48 +6292,48 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -6364,84 +6364,84 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -6472,7 +6472,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -6484,24 +6484,24 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -6513,19 +6513,19 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
